--- a/data/2019-11-09_form.xlsx
+++ b/data/2019-11-09_form.xlsx
@@ -4,18 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="12" windowWidth="16092" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1103" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="551" uniqueCount="118">
   <si>
     <t>번호</t>
   </si>
@@ -343,10 +342,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>하</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>정은정</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -387,10 +382,6 @@
   </si>
   <si>
     <t>Crystal</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>WBC</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -422,18 +413,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -463,17 +448,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -775,3389 +755,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U59"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D49" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="18.59765625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="13" max="15" width="10.8984375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="8.796875" style="5"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C2">
-        <v>5.66</v>
-      </c>
-      <c r="E2">
-        <v>4</v>
-      </c>
-      <c r="F2">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>77</v>
-      </c>
-      <c r="H2" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J2" t="s">
-        <v>92</v>
-      </c>
-      <c r="K2">
-        <v>19110758680</v>
-      </c>
-      <c r="L2" t="s">
-        <v>102</v>
-      </c>
-      <c r="M2" t="s">
-        <v>104</v>
-      </c>
-      <c r="N2" t="s">
-        <v>105</v>
-      </c>
-      <c r="O2" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P2" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q2" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R2" t="s">
-        <v>99</v>
-      </c>
-      <c r="S2">
-        <v>1182932</v>
-      </c>
-      <c r="T2" t="s">
-        <v>100</v>
-      </c>
-      <c r="U2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>4.92</v>
-      </c>
-      <c r="E3">
-        <v>4.2</v>
-      </c>
-      <c r="F3">
-        <v>6.3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>78</v>
-      </c>
-      <c r="H3" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J3" t="s">
-        <v>92</v>
-      </c>
-      <c r="K3">
-        <v>19110758680</v>
-      </c>
-      <c r="L3" t="s">
-        <v>102</v>
-      </c>
-      <c r="M3" t="s">
-        <v>104</v>
-      </c>
-      <c r="N3" t="s">
-        <v>105</v>
-      </c>
-      <c r="O3" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P3" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q3" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R3" t="s">
-        <v>99</v>
-      </c>
-      <c r="S3">
-        <v>1182932</v>
-      </c>
-      <c r="T3" t="s">
-        <v>100</v>
-      </c>
-      <c r="U3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C4">
-        <v>14.5</v>
-      </c>
-      <c r="E4">
-        <v>13</v>
-      </c>
-      <c r="F4">
-        <v>17</v>
-      </c>
-      <c r="G4" t="s">
-        <v>79</v>
-      </c>
-      <c r="H4" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J4" t="s">
-        <v>92</v>
-      </c>
-      <c r="K4">
-        <v>19110758680</v>
-      </c>
-      <c r="L4" t="s">
-        <v>102</v>
-      </c>
-      <c r="M4" t="s">
-        <v>104</v>
-      </c>
-      <c r="N4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O4" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P4" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R4" t="s">
-        <v>99</v>
-      </c>
-      <c r="S4">
-        <v>1182932</v>
-      </c>
-      <c r="T4" t="s">
-        <v>100</v>
-      </c>
-      <c r="U4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5">
-        <v>43.4</v>
-      </c>
-      <c r="E5">
-        <v>39</v>
-      </c>
-      <c r="F5">
-        <v>52</v>
-      </c>
-      <c r="G5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H5" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J5" t="s">
-        <v>92</v>
-      </c>
-      <c r="K5">
-        <v>19110758680</v>
-      </c>
-      <c r="L5" t="s">
-        <v>102</v>
-      </c>
-      <c r="M5" t="s">
-        <v>104</v>
-      </c>
-      <c r="N5" t="s">
-        <v>105</v>
-      </c>
-      <c r="O5" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P5" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q5" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R5" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5">
-        <v>1182932</v>
-      </c>
-      <c r="T5" t="s">
-        <v>100</v>
-      </c>
-      <c r="U5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6">
-        <v>88.2</v>
-      </c>
-      <c r="E6">
-        <v>81</v>
-      </c>
-      <c r="F6">
-        <v>96</v>
-      </c>
-      <c r="G6" t="s">
-        <v>81</v>
-      </c>
-      <c r="H6" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J6" t="s">
-        <v>92</v>
-      </c>
-      <c r="K6">
-        <v>19110758680</v>
-      </c>
-      <c r="L6" t="s">
-        <v>102</v>
-      </c>
-      <c r="M6" t="s">
-        <v>104</v>
-      </c>
-      <c r="N6" t="s">
-        <v>105</v>
-      </c>
-      <c r="O6" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P6" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q6" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R6" t="s">
-        <v>99</v>
-      </c>
-      <c r="S6">
-        <v>1182932</v>
-      </c>
-      <c r="T6" t="s">
-        <v>100</v>
-      </c>
-      <c r="U6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7">
-        <v>29.5</v>
-      </c>
-      <c r="E7">
-        <v>27</v>
-      </c>
-      <c r="F7">
-        <v>33</v>
-      </c>
-      <c r="G7" t="s">
-        <v>82</v>
-      </c>
-      <c r="H7" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J7" t="s">
-        <v>92</v>
-      </c>
-      <c r="K7">
-        <v>19110758680</v>
-      </c>
-      <c r="L7" t="s">
-        <v>102</v>
-      </c>
-      <c r="M7" t="s">
-        <v>104</v>
-      </c>
-      <c r="N7" t="s">
-        <v>105</v>
-      </c>
-      <c r="O7" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P7" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q7" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R7" t="s">
-        <v>99</v>
-      </c>
-      <c r="S7">
-        <v>1182932</v>
-      </c>
-      <c r="T7" t="s">
-        <v>100</v>
-      </c>
-      <c r="U7" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8">
-        <v>33.4</v>
-      </c>
-      <c r="E8">
-        <v>32</v>
-      </c>
-      <c r="F8">
-        <v>36</v>
-      </c>
-      <c r="G8" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J8" t="s">
-        <v>92</v>
-      </c>
-      <c r="K8">
-        <v>19110758680</v>
-      </c>
-      <c r="L8" t="s">
-        <v>102</v>
-      </c>
-      <c r="M8" t="s">
-        <v>104</v>
-      </c>
-      <c r="N8" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P8" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q8" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R8" t="s">
-        <v>99</v>
-      </c>
-      <c r="S8">
-        <v>1182932</v>
-      </c>
-      <c r="T8" t="s">
-        <v>100</v>
-      </c>
-      <c r="U8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9">
-        <v>206</v>
-      </c>
-      <c r="E9">
-        <v>130</v>
-      </c>
-      <c r="F9">
-        <v>400</v>
-      </c>
-      <c r="G9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H9" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J9" t="s">
-        <v>92</v>
-      </c>
-      <c r="K9">
-        <v>19110758680</v>
-      </c>
-      <c r="L9" t="s">
-        <v>102</v>
-      </c>
-      <c r="M9" t="s">
-        <v>104</v>
-      </c>
-      <c r="N9" t="s">
-        <v>105</v>
-      </c>
-      <c r="O9" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P9" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q9" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R9" t="s">
-        <v>99</v>
-      </c>
-      <c r="S9">
-        <v>1182932</v>
-      </c>
-      <c r="T9" t="s">
-        <v>100</v>
-      </c>
-      <c r="U9" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>27</v>
-      </c>
-      <c r="C10">
-        <v>11.7</v>
-      </c>
-      <c r="E10">
-        <v>11.5</v>
-      </c>
-      <c r="F10">
-        <v>14.5</v>
-      </c>
-      <c r="G10" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J10" t="s">
-        <v>92</v>
-      </c>
-      <c r="K10">
-        <v>19110758680</v>
-      </c>
-      <c r="L10" t="s">
-        <v>102</v>
-      </c>
-      <c r="M10" t="s">
-        <v>104</v>
-      </c>
-      <c r="N10" t="s">
-        <v>105</v>
-      </c>
-      <c r="O10" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P10" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q10" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R10" t="s">
-        <v>99</v>
-      </c>
-      <c r="S10">
-        <v>1182932</v>
-      </c>
-      <c r="T10" t="s">
-        <v>100</v>
-      </c>
-      <c r="U10" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11">
-        <v>9.4</v>
-      </c>
-      <c r="D11" t="s">
-        <v>106</v>
-      </c>
-      <c r="E11">
-        <v>9.5</v>
-      </c>
-      <c r="F11">
-        <v>17.5</v>
-      </c>
-      <c r="G11" t="s">
-        <v>81</v>
-      </c>
-      <c r="H11" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J11" t="s">
-        <v>92</v>
-      </c>
-      <c r="K11">
-        <v>19110758680</v>
-      </c>
-      <c r="L11" t="s">
-        <v>102</v>
-      </c>
-      <c r="M11" t="s">
-        <v>104</v>
-      </c>
-      <c r="N11" t="s">
-        <v>105</v>
-      </c>
-      <c r="O11" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P11" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q11" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R11" t="s">
-        <v>99</v>
-      </c>
-      <c r="S11">
-        <v>1182932</v>
-      </c>
-      <c r="T11" t="s">
-        <v>100</v>
-      </c>
-      <c r="U11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12">
-        <v>8.3000000000000007</v>
-      </c>
-      <c r="D12" t="s">
-        <v>107</v>
-      </c>
-      <c r="E12">
-        <v>8.8000000000000007</v>
-      </c>
-      <c r="F12">
-        <v>10.5</v>
-      </c>
-      <c r="G12" t="s">
-        <v>83</v>
-      </c>
-      <c r="H12" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J12" t="s">
-        <v>93</v>
-      </c>
-      <c r="K12">
-        <v>19110758681</v>
-      </c>
-      <c r="L12" t="s">
-        <v>97</v>
-      </c>
-      <c r="M12" t="s">
-        <v>104</v>
-      </c>
-      <c r="N12" t="s">
-        <v>108</v>
-      </c>
-      <c r="O12" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P12" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q12" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R12" t="s">
-        <v>99</v>
-      </c>
-      <c r="S12">
-        <v>1182932</v>
-      </c>
-      <c r="T12" t="s">
-        <v>100</v>
-      </c>
-      <c r="U12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13">
-        <v>3.8</v>
-      </c>
-      <c r="E13">
-        <v>2.5</v>
-      </c>
-      <c r="F13">
-        <v>4.5</v>
-      </c>
-      <c r="G13" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J13" t="s">
-        <v>93</v>
-      </c>
-      <c r="K13">
-        <v>19110758681</v>
-      </c>
-      <c r="L13" t="s">
-        <v>97</v>
-      </c>
-      <c r="M13" t="s">
-        <v>104</v>
-      </c>
-      <c r="N13" t="s">
-        <v>108</v>
-      </c>
-      <c r="O13" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P13" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q13" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R13" t="s">
-        <v>99</v>
-      </c>
-      <c r="S13">
-        <v>1182932</v>
-      </c>
-      <c r="T13" t="s">
-        <v>100</v>
-      </c>
-      <c r="U13" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14">
-        <v>97</v>
-      </c>
-      <c r="E14">
-        <v>70</v>
-      </c>
-      <c r="F14">
-        <v>110</v>
-      </c>
-      <c r="G14" t="s">
-        <v>83</v>
-      </c>
-      <c r="H14" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J14" t="s">
-        <v>93</v>
-      </c>
-      <c r="K14">
-        <v>19110758681</v>
-      </c>
-      <c r="L14" t="s">
-        <v>97</v>
-      </c>
-      <c r="M14" t="s">
-        <v>104</v>
-      </c>
-      <c r="N14" t="s">
-        <v>108</v>
-      </c>
-      <c r="O14" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P14" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q14" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R14" t="s">
-        <v>99</v>
-      </c>
-      <c r="S14">
-        <v>1182932</v>
-      </c>
-      <c r="T14" t="s">
-        <v>100</v>
-      </c>
-      <c r="U14" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15">
-        <v>11</v>
-      </c>
-      <c r="E15">
-        <v>10</v>
-      </c>
-      <c r="F15">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>83</v>
-      </c>
-      <c r="H15" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J15" t="s">
-        <v>93</v>
-      </c>
-      <c r="K15">
-        <v>19110758681</v>
-      </c>
-      <c r="L15" t="s">
-        <v>97</v>
-      </c>
-      <c r="M15" t="s">
-        <v>104</v>
-      </c>
-      <c r="N15" t="s">
-        <v>108</v>
-      </c>
-      <c r="O15" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P15" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S15">
-        <v>1182932</v>
-      </c>
-      <c r="T15" t="s">
-        <v>100</v>
-      </c>
-      <c r="U15" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>33</v>
-      </c>
-      <c r="C16">
-        <v>0.76</v>
-      </c>
-      <c r="E16">
-        <v>0.7</v>
-      </c>
-      <c r="F16">
-        <v>1.4</v>
-      </c>
-      <c r="G16" t="s">
-        <v>83</v>
-      </c>
-      <c r="H16" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J16" t="s">
-        <v>93</v>
-      </c>
-      <c r="K16">
-        <v>19110758681</v>
-      </c>
-      <c r="L16" t="s">
-        <v>97</v>
-      </c>
-      <c r="M16" t="s">
-        <v>104</v>
-      </c>
-      <c r="N16" t="s">
-        <v>108</v>
-      </c>
-      <c r="O16" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P16" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q16" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R16" t="s">
-        <v>99</v>
-      </c>
-      <c r="S16">
-        <v>1182932</v>
-      </c>
-      <c r="T16" t="s">
-        <v>100</v>
-      </c>
-      <c r="U16" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17">
-        <v>120.4</v>
-      </c>
-      <c r="G17" t="s">
-        <v>84</v>
-      </c>
-      <c r="H17" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J17" t="s">
-        <v>93</v>
-      </c>
-      <c r="K17">
-        <v>19110758681</v>
-      </c>
-      <c r="L17" t="s">
-        <v>97</v>
-      </c>
-      <c r="M17" t="s">
-        <v>104</v>
-      </c>
-      <c r="N17" t="s">
-        <v>108</v>
-      </c>
-      <c r="O17" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P17" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q17" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R17" t="s">
-        <v>99</v>
-      </c>
-      <c r="S17">
-        <v>1182932</v>
-      </c>
-      <c r="T17" t="s">
-        <v>100</v>
-      </c>
-      <c r="U17" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18">
-        <v>122.4</v>
-      </c>
-      <c r="G18" t="s">
-        <v>84</v>
-      </c>
-      <c r="H18" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J18" t="s">
-        <v>93</v>
-      </c>
-      <c r="K18">
-        <v>19110758681</v>
-      </c>
-      <c r="L18" t="s">
-        <v>97</v>
-      </c>
-      <c r="M18" t="s">
-        <v>104</v>
-      </c>
-      <c r="N18" t="s">
-        <v>108</v>
-      </c>
-      <c r="O18" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P18" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q18" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R18" t="s">
-        <v>99</v>
-      </c>
-      <c r="S18">
-        <v>1182932</v>
-      </c>
-      <c r="T18" t="s">
-        <v>100</v>
-      </c>
-      <c r="U18" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>36</v>
-      </c>
-      <c r="C19">
-        <v>150</v>
-      </c>
-      <c r="E19">
-        <v>70</v>
-      </c>
-      <c r="F19">
-        <v>240</v>
-      </c>
-      <c r="G19" t="s">
-        <v>83</v>
-      </c>
-      <c r="H19" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J19" t="s">
-        <v>93</v>
-      </c>
-      <c r="K19">
-        <v>19110758681</v>
-      </c>
-      <c r="L19" t="s">
-        <v>97</v>
-      </c>
-      <c r="M19" t="s">
-        <v>104</v>
-      </c>
-      <c r="N19" t="s">
-        <v>108</v>
-      </c>
-      <c r="O19" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P19" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R19" t="s">
-        <v>99</v>
-      </c>
-      <c r="S19">
-        <v>1182932</v>
-      </c>
-      <c r="T19" t="s">
-        <v>100</v>
-      </c>
-      <c r="U19" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>37</v>
-      </c>
-      <c r="C20">
-        <v>5.9</v>
-      </c>
-      <c r="E20">
-        <v>3</v>
-      </c>
-      <c r="F20">
-        <v>7</v>
-      </c>
-      <c r="G20" t="s">
-        <v>83</v>
-      </c>
-      <c r="H20" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J20" t="s">
-        <v>93</v>
-      </c>
-      <c r="K20">
-        <v>19110758681</v>
-      </c>
-      <c r="L20" t="s">
-        <v>97</v>
-      </c>
-      <c r="M20" t="s">
-        <v>104</v>
-      </c>
-      <c r="N20" t="s">
-        <v>108</v>
-      </c>
-      <c r="O20" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P20" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q20" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R20" t="s">
-        <v>99</v>
-      </c>
-      <c r="S20">
-        <v>1182932</v>
-      </c>
-      <c r="T20" t="s">
-        <v>100</v>
-      </c>
-      <c r="U20" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21">
-        <v>6.3</v>
-      </c>
-      <c r="E21">
-        <v>6</v>
-      </c>
-      <c r="F21">
-        <v>8</v>
-      </c>
-      <c r="G21" t="s">
-        <v>79</v>
-      </c>
-      <c r="H21" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J21" t="s">
-        <v>93</v>
-      </c>
-      <c r="K21">
-        <v>19110758681</v>
-      </c>
-      <c r="L21" t="s">
-        <v>97</v>
-      </c>
-      <c r="M21" t="s">
-        <v>104</v>
-      </c>
-      <c r="N21" t="s">
-        <v>108</v>
-      </c>
-      <c r="O21" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P21" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q21" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R21" t="s">
-        <v>99</v>
-      </c>
-      <c r="S21">
-        <v>1182932</v>
-      </c>
-      <c r="T21" t="s">
-        <v>100</v>
-      </c>
-      <c r="U21" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22">
-        <v>3.6</v>
-      </c>
-      <c r="E22">
-        <v>3.3</v>
-      </c>
-      <c r="F22">
-        <v>5.2</v>
-      </c>
-      <c r="G22" t="s">
-        <v>79</v>
-      </c>
-      <c r="H22" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J22" t="s">
-        <v>93</v>
-      </c>
-      <c r="K22">
-        <v>19110758681</v>
-      </c>
-      <c r="L22" t="s">
-        <v>97</v>
-      </c>
-      <c r="M22" t="s">
-        <v>104</v>
-      </c>
-      <c r="N22" t="s">
-        <v>108</v>
-      </c>
-      <c r="O22" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P22" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q22" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R22" t="s">
-        <v>99</v>
-      </c>
-      <c r="S22">
-        <v>1182932</v>
-      </c>
-      <c r="T22" t="s">
-        <v>100</v>
-      </c>
-      <c r="U22" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>40</v>
-      </c>
-      <c r="C23">
-        <v>1</v>
-      </c>
-      <c r="E23">
-        <v>0.2</v>
-      </c>
-      <c r="F23">
-        <v>1.2</v>
-      </c>
-      <c r="G23" t="s">
-        <v>83</v>
-      </c>
-      <c r="H23" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J23" t="s">
-        <v>93</v>
-      </c>
-      <c r="K23">
-        <v>19110758681</v>
-      </c>
-      <c r="L23" t="s">
-        <v>97</v>
-      </c>
-      <c r="M23" t="s">
-        <v>104</v>
-      </c>
-      <c r="N23" t="s">
-        <v>108</v>
-      </c>
-      <c r="O23" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P23" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q23" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R23" t="s">
-        <v>99</v>
-      </c>
-      <c r="S23">
-        <v>1182932</v>
-      </c>
-      <c r="T23" t="s">
-        <v>100</v>
-      </c>
-      <c r="U23" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24">
-        <v>53</v>
-      </c>
-      <c r="E24">
-        <v>30</v>
-      </c>
-      <c r="F24">
-        <v>115</v>
-      </c>
-      <c r="G24" t="s">
-        <v>85</v>
-      </c>
-      <c r="H24" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J24" t="s">
-        <v>93</v>
-      </c>
-      <c r="K24">
-        <v>19110758681</v>
-      </c>
-      <c r="L24" t="s">
-        <v>97</v>
-      </c>
-      <c r="M24" t="s">
-        <v>104</v>
-      </c>
-      <c r="N24" t="s">
-        <v>108</v>
-      </c>
-      <c r="O24" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P24" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q24" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R24" t="s">
-        <v>99</v>
-      </c>
-      <c r="S24">
-        <v>1182932</v>
-      </c>
-      <c r="T24" t="s">
-        <v>100</v>
-      </c>
-      <c r="U24" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
-      <c r="C25">
-        <v>21</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>39</v>
-      </c>
-      <c r="G25" t="s">
-        <v>85</v>
-      </c>
-      <c r="H25" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J25" t="s">
-        <v>93</v>
-      </c>
-      <c r="K25">
-        <v>19110758681</v>
-      </c>
-      <c r="L25" t="s">
-        <v>97</v>
-      </c>
-      <c r="M25" t="s">
-        <v>104</v>
-      </c>
-      <c r="N25" t="s">
-        <v>108</v>
-      </c>
-      <c r="O25" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P25" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R25" t="s">
-        <v>99</v>
-      </c>
-      <c r="S25">
-        <v>1182932</v>
-      </c>
-      <c r="T25" t="s">
-        <v>100</v>
-      </c>
-      <c r="U25" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26">
-        <v>30</v>
-      </c>
-      <c r="E26">
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <v>39</v>
-      </c>
-      <c r="G26" t="s">
-        <v>85</v>
-      </c>
-      <c r="H26" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J26" t="s">
-        <v>93</v>
-      </c>
-      <c r="K26">
-        <v>19110758681</v>
-      </c>
-      <c r="L26" t="s">
-        <v>97</v>
-      </c>
-      <c r="M26" t="s">
-        <v>104</v>
-      </c>
-      <c r="N26" t="s">
-        <v>108</v>
-      </c>
-      <c r="O26" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P26" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q26" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R26" t="s">
-        <v>99</v>
-      </c>
-      <c r="S26">
-        <v>1182932</v>
-      </c>
-      <c r="T26" t="s">
-        <v>100</v>
-      </c>
-      <c r="U26" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>109</v>
-      </c>
-      <c r="C27">
-        <v>141</v>
-      </c>
-      <c r="E27">
-        <v>135</v>
-      </c>
-      <c r="F27">
-        <v>145</v>
-      </c>
-      <c r="G27" t="s">
-        <v>86</v>
-      </c>
-      <c r="H27" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J27" t="s">
-        <v>93</v>
-      </c>
-      <c r="K27">
-        <v>19110758681</v>
-      </c>
-      <c r="L27" t="s">
-        <v>97</v>
-      </c>
-      <c r="M27" t="s">
-        <v>104</v>
-      </c>
-      <c r="N27" t="s">
-        <v>108</v>
-      </c>
-      <c r="O27" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P27" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q27" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R27" t="s">
-        <v>99</v>
-      </c>
-      <c r="S27">
-        <v>1182932</v>
-      </c>
-      <c r="T27" t="s">
-        <v>100</v>
-      </c>
-      <c r="U27" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28">
-        <v>4.0999999999999996</v>
-      </c>
-      <c r="E28">
-        <v>3.5</v>
-      </c>
-      <c r="F28">
-        <v>5.5</v>
-      </c>
-      <c r="G28" t="s">
-        <v>86</v>
-      </c>
-      <c r="H28" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J28" t="s">
-        <v>93</v>
-      </c>
-      <c r="K28">
-        <v>19110758681</v>
-      </c>
-      <c r="L28" t="s">
-        <v>97</v>
-      </c>
-      <c r="M28" t="s">
-        <v>104</v>
-      </c>
-      <c r="N28" t="s">
-        <v>108</v>
-      </c>
-      <c r="O28" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P28" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R28" t="s">
-        <v>99</v>
-      </c>
-      <c r="S28">
-        <v>1182932</v>
-      </c>
-      <c r="T28" t="s">
-        <v>100</v>
-      </c>
-      <c r="U28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>45</v>
-      </c>
-      <c r="C29">
-        <v>104</v>
-      </c>
-      <c r="E29">
-        <v>98</v>
-      </c>
-      <c r="F29">
-        <v>110</v>
-      </c>
-      <c r="G29" t="s">
-        <v>86</v>
-      </c>
-      <c r="H29" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J29" t="s">
-        <v>93</v>
-      </c>
-      <c r="K29">
-        <v>19110758681</v>
-      </c>
-      <c r="L29" t="s">
-        <v>97</v>
-      </c>
-      <c r="M29" t="s">
-        <v>104</v>
-      </c>
-      <c r="N29" t="s">
-        <v>108</v>
-      </c>
-      <c r="O29" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P29" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q29" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R29" t="s">
-        <v>99</v>
-      </c>
-      <c r="S29">
-        <v>1182932</v>
-      </c>
-      <c r="T29" t="s">
-        <v>100</v>
-      </c>
-      <c r="U29" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>46</v>
-      </c>
-      <c r="C30">
-        <v>59</v>
-      </c>
-      <c r="E30">
-        <v>0</v>
-      </c>
-      <c r="F30">
-        <v>199</v>
-      </c>
-      <c r="G30" t="s">
-        <v>83</v>
-      </c>
-      <c r="H30" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J30" t="s">
-        <v>93</v>
-      </c>
-      <c r="K30">
-        <v>19110758681</v>
-      </c>
-      <c r="L30" t="s">
-        <v>97</v>
-      </c>
-      <c r="M30" t="s">
-        <v>104</v>
-      </c>
-      <c r="N30" t="s">
-        <v>108</v>
-      </c>
-      <c r="O30" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P30" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q30" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R30" t="s">
-        <v>99</v>
-      </c>
-      <c r="S30">
-        <v>1182932</v>
-      </c>
-      <c r="T30" t="s">
-        <v>100</v>
-      </c>
-      <c r="U30" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C31">
-        <v>38</v>
-      </c>
-      <c r="E31">
-        <v>0.5</v>
-      </c>
-      <c r="F31">
-        <v>55</v>
-      </c>
-      <c r="G31" t="s">
-        <v>83</v>
-      </c>
-      <c r="H31" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J31" t="s">
-        <v>93</v>
-      </c>
-      <c r="K31">
-        <v>19110758681</v>
-      </c>
-      <c r="L31" t="s">
-        <v>97</v>
-      </c>
-      <c r="M31" t="s">
-        <v>104</v>
-      </c>
-      <c r="N31" t="s">
-        <v>108</v>
-      </c>
-      <c r="O31" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P31" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R31" t="s">
-        <v>99</v>
-      </c>
-      <c r="S31">
-        <v>1182932</v>
-      </c>
-      <c r="T31" t="s">
-        <v>100</v>
-      </c>
-      <c r="U31" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>48</v>
-      </c>
-      <c r="C32">
-        <v>100</v>
-      </c>
-      <c r="E32">
-        <v>0</v>
-      </c>
-      <c r="F32">
-        <v>129</v>
-      </c>
-      <c r="G32" t="s">
-        <v>83</v>
-      </c>
-      <c r="H32" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J32" t="s">
-        <v>93</v>
-      </c>
-      <c r="K32">
-        <v>19110758681</v>
-      </c>
-      <c r="L32" t="s">
-        <v>97</v>
-      </c>
-      <c r="M32" t="s">
-        <v>104</v>
-      </c>
-      <c r="N32" t="s">
-        <v>108</v>
-      </c>
-      <c r="O32" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P32" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q32" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R32" t="s">
-        <v>99</v>
-      </c>
-      <c r="S32">
-        <v>1182932</v>
-      </c>
-      <c r="T32" t="s">
-        <v>100</v>
-      </c>
-      <c r="U32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>49</v>
-      </c>
-      <c r="C33">
-        <v>256.8</v>
-      </c>
-      <c r="G33" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J33" t="s">
-        <v>94</v>
-      </c>
-      <c r="K33">
-        <v>19110758682</v>
-      </c>
-      <c r="L33" t="s">
-        <v>98</v>
-      </c>
-      <c r="M33" t="s">
-        <v>104</v>
-      </c>
-      <c r="N33" t="s">
-        <v>110</v>
-      </c>
-      <c r="O33" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P33" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q33" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R33" t="s">
-        <v>99</v>
-      </c>
-      <c r="S33">
-        <v>1182932</v>
-      </c>
-      <c r="T33" t="s">
-        <v>100</v>
-      </c>
-      <c r="U33" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>50</v>
-      </c>
-      <c r="C34">
-        <v>18.34</v>
-      </c>
-      <c r="G34" t="s">
-        <v>87</v>
-      </c>
-      <c r="H34" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J34" t="s">
-        <v>94</v>
-      </c>
-      <c r="K34">
-        <v>19110758682</v>
-      </c>
-      <c r="L34" t="s">
-        <v>98</v>
-      </c>
-      <c r="M34" t="s">
-        <v>104</v>
-      </c>
-      <c r="N34" t="s">
-        <v>110</v>
-      </c>
-      <c r="O34" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P34" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q34" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R34" t="s">
-        <v>99</v>
-      </c>
-      <c r="S34">
-        <v>1182932</v>
-      </c>
-      <c r="T34" t="s">
-        <v>100</v>
-      </c>
-      <c r="U34" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>51</v>
-      </c>
-      <c r="C35">
-        <v>47.1</v>
-      </c>
-      <c r="E35">
-        <v>0</v>
-      </c>
-      <c r="F35">
-        <v>20</v>
-      </c>
-      <c r="G35" t="s">
-        <v>88</v>
-      </c>
-      <c r="H35" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J35" t="s">
-        <v>94</v>
-      </c>
-      <c r="K35">
-        <v>19110758682</v>
-      </c>
-      <c r="L35" t="s">
-        <v>98</v>
-      </c>
-      <c r="M35" t="s">
-        <v>104</v>
-      </c>
-      <c r="N35" t="s">
-        <v>110</v>
-      </c>
-      <c r="O35" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P35" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q35" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R35" t="s">
-        <v>99</v>
-      </c>
-      <c r="S35">
-        <v>1182932</v>
-      </c>
-      <c r="T35" t="s">
-        <v>100</v>
-      </c>
-      <c r="U35" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C36">
-        <v>1.23</v>
-      </c>
-      <c r="E36">
-        <v>0.35</v>
-      </c>
-      <c r="F36">
-        <v>4.9400000000000004</v>
-      </c>
-      <c r="G36" t="s">
-        <v>89</v>
-      </c>
-      <c r="H36" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J36" t="s">
-        <v>95</v>
-      </c>
-      <c r="K36">
-        <v>19110758683</v>
-      </c>
-      <c r="L36" t="s">
-        <v>97</v>
-      </c>
-      <c r="M36" t="s">
-        <v>104</v>
-      </c>
-      <c r="N36" t="s">
-        <v>111</v>
-      </c>
-      <c r="O36" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P36" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q36" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R36" t="s">
-        <v>99</v>
-      </c>
-      <c r="S36">
-        <v>1182932</v>
-      </c>
-      <c r="T36" t="s">
-        <v>100</v>
-      </c>
-      <c r="U36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>53</v>
-      </c>
-      <c r="C37">
-        <v>83.6</v>
-      </c>
-      <c r="E37">
-        <v>58</v>
-      </c>
-      <c r="F37">
-        <v>159</v>
-      </c>
-      <c r="G37" t="s">
-        <v>90</v>
-      </c>
-      <c r="H37" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J37" t="s">
-        <v>95</v>
-      </c>
-      <c r="K37">
-        <v>19110758683</v>
-      </c>
-      <c r="L37" t="s">
-        <v>97</v>
-      </c>
-      <c r="M37" t="s">
-        <v>104</v>
-      </c>
-      <c r="N37" t="s">
-        <v>111</v>
-      </c>
-      <c r="O37" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P37" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q37" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R37" t="s">
-        <v>99</v>
-      </c>
-      <c r="S37">
-        <v>1182932</v>
-      </c>
-      <c r="T37" t="s">
-        <v>100</v>
-      </c>
-      <c r="U37" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>54</v>
-      </c>
-      <c r="C38">
-        <v>1.1200000000000001</v>
-      </c>
-      <c r="E38">
-        <v>0.7</v>
-      </c>
-      <c r="F38">
-        <v>1.48</v>
-      </c>
-      <c r="G38" t="s">
-        <v>90</v>
-      </c>
-      <c r="H38" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J38" t="s">
-        <v>95</v>
-      </c>
-      <c r="K38">
-        <v>19110758683</v>
-      </c>
-      <c r="L38" t="s">
-        <v>97</v>
-      </c>
-      <c r="M38" t="s">
-        <v>104</v>
-      </c>
-      <c r="N38" t="s">
-        <v>111</v>
-      </c>
-      <c r="O38" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P38" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q38" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R38" t="s">
-        <v>99</v>
-      </c>
-      <c r="S38">
-        <v>1182932</v>
-      </c>
-      <c r="T38" t="s">
-        <v>100</v>
-      </c>
-      <c r="U38" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>55</v>
-      </c>
-      <c r="C39" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
-      </c>
-      <c r="H39" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J39" t="s">
-        <v>96</v>
-      </c>
-      <c r="K39">
-        <v>19110758684</v>
-      </c>
-      <c r="L39" t="s">
-        <v>98</v>
-      </c>
-      <c r="M39" t="s">
-        <v>104</v>
-      </c>
-      <c r="N39" t="s">
-        <v>113</v>
-      </c>
-      <c r="O39" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P39" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q39" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R39" t="s">
-        <v>99</v>
-      </c>
-      <c r="S39">
-        <v>1182932</v>
-      </c>
-      <c r="T39" t="s">
-        <v>100</v>
-      </c>
-      <c r="U39" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F40" t="s">
-        <v>75</v>
-      </c>
-      <c r="H40" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J40" t="s">
-        <v>96</v>
-      </c>
-      <c r="K40">
-        <v>19110758684</v>
-      </c>
-      <c r="L40" t="s">
-        <v>98</v>
-      </c>
-      <c r="M40" t="s">
-        <v>104</v>
-      </c>
-      <c r="N40" t="s">
-        <v>113</v>
-      </c>
-      <c r="O40" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P40" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q40" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R40" t="s">
-        <v>99</v>
-      </c>
-      <c r="S40">
-        <v>1182932</v>
-      </c>
-      <c r="T40" t="s">
-        <v>100</v>
-      </c>
-      <c r="U40" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>57</v>
-      </c>
-      <c r="C41">
-        <v>1.028</v>
-      </c>
-      <c r="E41">
-        <v>1.0049999999999999</v>
-      </c>
-      <c r="F41">
-        <v>1.03</v>
-      </c>
-      <c r="H41" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J41" t="s">
-        <v>96</v>
-      </c>
-      <c r="K41">
-        <v>19110758684</v>
-      </c>
-      <c r="L41" t="s">
-        <v>98</v>
-      </c>
-      <c r="M41" t="s">
-        <v>104</v>
-      </c>
-      <c r="N41" t="s">
-        <v>113</v>
-      </c>
-      <c r="O41" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P41" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q41" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R41" t="s">
-        <v>99</v>
-      </c>
-      <c r="S41">
-        <v>1182932</v>
-      </c>
-      <c r="T41" t="s">
-        <v>100</v>
-      </c>
-      <c r="U41" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>58</v>
-      </c>
-      <c r="C42">
-        <v>5.5</v>
-      </c>
-      <c r="E42">
-        <v>5</v>
-      </c>
-      <c r="F42">
-        <v>8.5</v>
-      </c>
-      <c r="H42" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J42" t="s">
-        <v>96</v>
-      </c>
-      <c r="K42">
-        <v>19110758684</v>
-      </c>
-      <c r="L42" t="s">
-        <v>98</v>
-      </c>
-      <c r="M42" t="s">
-        <v>104</v>
-      </c>
-      <c r="N42" t="s">
-        <v>113</v>
-      </c>
-      <c r="O42" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P42" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q42" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R42" t="s">
-        <v>99</v>
-      </c>
-      <c r="S42">
-        <v>1182932</v>
-      </c>
-      <c r="T42" t="s">
-        <v>100</v>
-      </c>
-      <c r="U42" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" t="s">
-        <v>115</v>
-      </c>
-      <c r="E43" t="s">
-        <v>73</v>
-      </c>
-      <c r="F43" t="s">
-        <v>76</v>
-      </c>
-      <c r="H43" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J43" t="s">
-        <v>96</v>
-      </c>
-      <c r="K43">
-        <v>19110758684</v>
-      </c>
-      <c r="L43" t="s">
-        <v>98</v>
-      </c>
-      <c r="M43" t="s">
-        <v>104</v>
-      </c>
-      <c r="N43" t="s">
-        <v>113</v>
-      </c>
-      <c r="O43" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P43" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q43" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R43" t="s">
-        <v>99</v>
-      </c>
-      <c r="S43">
-        <v>1182932</v>
-      </c>
-      <c r="T43" t="s">
-        <v>100</v>
-      </c>
-      <c r="U43" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>60</v>
-      </c>
-      <c r="C44" t="s">
-        <v>116</v>
-      </c>
-      <c r="F44" t="s">
-        <v>73</v>
-      </c>
-      <c r="H44" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J44" t="s">
-        <v>96</v>
-      </c>
-      <c r="K44">
-        <v>19110758684</v>
-      </c>
-      <c r="L44" t="s">
-        <v>98</v>
-      </c>
-      <c r="M44" t="s">
-        <v>104</v>
-      </c>
-      <c r="N44" t="s">
-        <v>113</v>
-      </c>
-      <c r="O44" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P44" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q44" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R44" t="s">
-        <v>99</v>
-      </c>
-      <c r="S44">
-        <v>1182932</v>
-      </c>
-      <c r="T44" t="s">
-        <v>100</v>
-      </c>
-      <c r="U44" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" t="s">
-        <v>116</v>
-      </c>
-      <c r="F45" t="s">
-        <v>73</v>
-      </c>
-      <c r="H45" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J45" t="s">
-        <v>96</v>
-      </c>
-      <c r="K45">
-        <v>19110758684</v>
-      </c>
-      <c r="L45" t="s">
-        <v>98</v>
-      </c>
-      <c r="M45" t="s">
-        <v>104</v>
-      </c>
-      <c r="N45" t="s">
-        <v>113</v>
-      </c>
-      <c r="O45" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P45" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q45" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R45" t="s">
-        <v>99</v>
-      </c>
-      <c r="S45">
-        <v>1182932</v>
-      </c>
-      <c r="T45" t="s">
-        <v>100</v>
-      </c>
-      <c r="U45" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" t="s">
-        <v>116</v>
-      </c>
-      <c r="F46" t="s">
-        <v>73</v>
-      </c>
-      <c r="H46" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J46" t="s">
-        <v>96</v>
-      </c>
-      <c r="K46">
-        <v>19110758684</v>
-      </c>
-      <c r="L46" t="s">
-        <v>98</v>
-      </c>
-      <c r="M46" t="s">
-        <v>104</v>
-      </c>
-      <c r="N46" t="s">
-        <v>113</v>
-      </c>
-      <c r="O46" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P46" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q46" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R46" t="s">
-        <v>99</v>
-      </c>
-      <c r="S46">
-        <v>1182932</v>
-      </c>
-      <c r="T46" t="s">
-        <v>100</v>
-      </c>
-      <c r="U46" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" t="s">
-        <v>116</v>
-      </c>
-      <c r="F47" t="s">
-        <v>73</v>
-      </c>
-      <c r="H47" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J47" t="s">
-        <v>96</v>
-      </c>
-      <c r="K47">
-        <v>19110758684</v>
-      </c>
-      <c r="L47" t="s">
-        <v>98</v>
-      </c>
-      <c r="M47" t="s">
-        <v>104</v>
-      </c>
-      <c r="N47" t="s">
-        <v>113</v>
-      </c>
-      <c r="O47" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P47" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q47" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R47" t="s">
-        <v>99</v>
-      </c>
-      <c r="S47">
-        <v>1182932</v>
-      </c>
-      <c r="T47" t="s">
-        <v>100</v>
-      </c>
-      <c r="U47" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" t="s">
-        <v>115</v>
-      </c>
-      <c r="F48" t="s">
-        <v>76</v>
-      </c>
-      <c r="H48" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J48" t="s">
-        <v>96</v>
-      </c>
-      <c r="K48">
-        <v>19110758684</v>
-      </c>
-      <c r="L48" t="s">
-        <v>98</v>
-      </c>
-      <c r="M48" t="s">
-        <v>104</v>
-      </c>
-      <c r="N48" t="s">
-        <v>113</v>
-      </c>
-      <c r="O48" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P48" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q48" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R48" t="s">
-        <v>99</v>
-      </c>
-      <c r="S48">
-        <v>1182932</v>
-      </c>
-      <c r="T48" t="s">
-        <v>100</v>
-      </c>
-      <c r="U48" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>65</v>
-      </c>
-      <c r="C49" t="s">
-        <v>116</v>
-      </c>
-      <c r="F49" t="s">
-        <v>73</v>
-      </c>
-      <c r="H49" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J49" t="s">
-        <v>96</v>
-      </c>
-      <c r="K49">
-        <v>19110758684</v>
-      </c>
-      <c r="L49" t="s">
-        <v>98</v>
-      </c>
-      <c r="M49" t="s">
-        <v>104</v>
-      </c>
-      <c r="N49" t="s">
-        <v>113</v>
-      </c>
-      <c r="O49" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P49" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q49" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R49" t="s">
-        <v>99</v>
-      </c>
-      <c r="S49">
-        <v>1182932</v>
-      </c>
-      <c r="T49" t="s">
-        <v>100</v>
-      </c>
-      <c r="U49" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>66</v>
-      </c>
-      <c r="C50" t="s">
-        <v>116</v>
-      </c>
-      <c r="F50" t="s">
-        <v>73</v>
-      </c>
-      <c r="H50" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J50" t="s">
-        <v>96</v>
-      </c>
-      <c r="K50">
-        <v>19110758684</v>
-      </c>
-      <c r="L50" t="s">
-        <v>98</v>
-      </c>
-      <c r="M50" t="s">
-        <v>104</v>
-      </c>
-      <c r="N50" t="s">
-        <v>113</v>
-      </c>
-      <c r="O50" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P50" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q50" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R50" t="s">
-        <v>99</v>
-      </c>
-      <c r="S50">
-        <v>1182932</v>
-      </c>
-      <c r="T50" t="s">
-        <v>100</v>
-      </c>
-      <c r="U50" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>20</v>
-      </c>
-      <c r="C51" t="s">
-        <v>117</v>
-      </c>
-      <c r="E51">
-        <v>0</v>
-      </c>
-      <c r="F51">
-        <v>4</v>
-      </c>
-      <c r="G51" t="s">
-        <v>91</v>
-      </c>
-      <c r="H51" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J51" t="s">
-        <v>96</v>
-      </c>
-      <c r="K51">
-        <v>19110758684</v>
-      </c>
-      <c r="L51" t="s">
-        <v>98</v>
-      </c>
-      <c r="M51" t="s">
-        <v>104</v>
-      </c>
-      <c r="N51" t="s">
-        <v>113</v>
-      </c>
-      <c r="O51" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P51" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q51" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R51" t="s">
-        <v>99</v>
-      </c>
-      <c r="S51">
-        <v>1182932</v>
-      </c>
-      <c r="T51" t="s">
-        <v>100</v>
-      </c>
-      <c r="U51" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>19</v>
-      </c>
-      <c r="C52" t="s">
-        <v>117</v>
-      </c>
-      <c r="E52">
-        <v>0</v>
-      </c>
-      <c r="F52">
-        <v>4</v>
-      </c>
-      <c r="G52" t="s">
-        <v>91</v>
-      </c>
-      <c r="H52" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J52" t="s">
-        <v>96</v>
-      </c>
-      <c r="K52">
-        <v>19110758684</v>
-      </c>
-      <c r="L52" t="s">
-        <v>98</v>
-      </c>
-      <c r="M52" t="s">
-        <v>104</v>
-      </c>
-      <c r="N52" t="s">
-        <v>113</v>
-      </c>
-      <c r="O52" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P52" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q52" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R52" t="s">
-        <v>99</v>
-      </c>
-      <c r="S52">
-        <v>1182932</v>
-      </c>
-      <c r="T52" t="s">
-        <v>100</v>
-      </c>
-      <c r="U52" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>67</v>
-      </c>
-      <c r="C53" t="s">
-        <v>117</v>
-      </c>
-      <c r="E53">
-        <v>0</v>
-      </c>
-      <c r="F53">
-        <v>9</v>
-      </c>
-      <c r="G53" t="s">
-        <v>91</v>
-      </c>
-      <c r="H53" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J53" t="s">
-        <v>96</v>
-      </c>
-      <c r="K53">
-        <v>19110758684</v>
-      </c>
-      <c r="L53" t="s">
-        <v>98</v>
-      </c>
-      <c r="M53" t="s">
-        <v>104</v>
-      </c>
-      <c r="N53" t="s">
-        <v>113</v>
-      </c>
-      <c r="O53" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P53" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q53" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R53" t="s">
-        <v>99</v>
-      </c>
-      <c r="S53">
-        <v>1182932</v>
-      </c>
-      <c r="T53" t="s">
-        <v>100</v>
-      </c>
-      <c r="U53" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E54">
-        <v>0</v>
-      </c>
-      <c r="F54">
-        <v>4</v>
-      </c>
-      <c r="G54" t="s">
-        <v>91</v>
-      </c>
-      <c r="H54" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J54" t="s">
-        <v>96</v>
-      </c>
-      <c r="K54">
-        <v>19110758684</v>
-      </c>
-      <c r="L54" t="s">
-        <v>98</v>
-      </c>
-      <c r="M54" t="s">
-        <v>104</v>
-      </c>
-      <c r="N54" t="s">
-        <v>113</v>
-      </c>
-      <c r="O54" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P54" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q54" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R54" t="s">
-        <v>99</v>
-      </c>
-      <c r="S54">
-        <v>1182932</v>
-      </c>
-      <c r="T54" t="s">
-        <v>100</v>
-      </c>
-      <c r="U54" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>69</v>
-      </c>
-      <c r="E55">
-        <v>0</v>
-      </c>
-      <c r="F55">
-        <v>1</v>
-      </c>
-      <c r="G55" t="s">
-        <v>91</v>
-      </c>
-      <c r="H55" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J55" t="s">
-        <v>96</v>
-      </c>
-      <c r="K55">
-        <v>19110758684</v>
-      </c>
-      <c r="L55" t="s">
-        <v>98</v>
-      </c>
-      <c r="M55" t="s">
-        <v>104</v>
-      </c>
-      <c r="N55" t="s">
-        <v>113</v>
-      </c>
-      <c r="O55" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P55" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q55" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R55" t="s">
-        <v>99</v>
-      </c>
-      <c r="S55">
-        <v>1182932</v>
-      </c>
-      <c r="T55" t="s">
-        <v>100</v>
-      </c>
-      <c r="U55" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>70</v>
-      </c>
-      <c r="H56" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J56" t="s">
-        <v>96</v>
-      </c>
-      <c r="K56">
-        <v>19110758684</v>
-      </c>
-      <c r="L56" t="s">
-        <v>98</v>
-      </c>
-      <c r="M56" t="s">
-        <v>104</v>
-      </c>
-      <c r="N56" t="s">
-        <v>113</v>
-      </c>
-      <c r="O56" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P56" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q56" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R56" t="s">
-        <v>99</v>
-      </c>
-      <c r="S56">
-        <v>1182932</v>
-      </c>
-      <c r="T56" t="s">
-        <v>100</v>
-      </c>
-      <c r="U56" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>71</v>
-      </c>
-      <c r="H57" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J57" t="s">
-        <v>96</v>
-      </c>
-      <c r="K57">
-        <v>19110758684</v>
-      </c>
-      <c r="L57" t="s">
-        <v>98</v>
-      </c>
-      <c r="M57" t="s">
-        <v>104</v>
-      </c>
-      <c r="N57" t="s">
-        <v>113</v>
-      </c>
-      <c r="O57" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P57" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q57" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R57" t="s">
-        <v>99</v>
-      </c>
-      <c r="S57">
-        <v>1182932</v>
-      </c>
-      <c r="T57" t="s">
-        <v>100</v>
-      </c>
-      <c r="U57" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>118</v>
-      </c>
-      <c r="H58" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J58" t="s">
-        <v>96</v>
-      </c>
-      <c r="K58">
-        <v>19110758684</v>
-      </c>
-      <c r="L58" t="s">
-        <v>98</v>
-      </c>
-      <c r="M58" t="s">
-        <v>104</v>
-      </c>
-      <c r="N58" t="s">
-        <v>113</v>
-      </c>
-      <c r="O58" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P58" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q58" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R58" t="s">
-        <v>99</v>
-      </c>
-      <c r="S58">
-        <v>1182932</v>
-      </c>
-      <c r="T58" t="s">
-        <v>100</v>
-      </c>
-      <c r="U58" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.4">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>72</v>
-      </c>
-      <c r="H59" s="4">
-        <v>43776</v>
-      </c>
-      <c r="J59" t="s">
-        <v>96</v>
-      </c>
-      <c r="K59">
-        <v>19110758684</v>
-      </c>
-      <c r="L59" t="s">
-        <v>98</v>
-      </c>
-      <c r="M59" t="s">
-        <v>104</v>
-      </c>
-      <c r="N59" t="s">
-        <v>113</v>
-      </c>
-      <c r="O59" s="2">
-        <v>43624</v>
-      </c>
-      <c r="P59" s="4">
-        <v>43776</v>
-      </c>
-      <c r="Q59" s="2">
-        <v>43776</v>
-      </c>
-      <c r="R59" t="s">
-        <v>99</v>
-      </c>
-      <c r="S59">
-        <v>1182932</v>
-      </c>
-      <c r="T59" t="s">
-        <v>100</v>
-      </c>
-      <c r="U59" t="s">
-        <v>101</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="3" ySplit="1" topLeftCell="D2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="3" ySplit="1" topLeftCell="D44" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomRight" activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4825,7 +1429,7 @@
         <v>104</v>
       </c>
       <c r="L12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M12" s="2">
         <v>43624</v>
@@ -4881,7 +1485,7 @@
         <v>104</v>
       </c>
       <c r="L13" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M13" s="2">
         <v>43624</v>
@@ -4937,7 +1541,7 @@
         <v>104</v>
       </c>
       <c r="L14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M14" s="2">
         <v>43624</v>
@@ -4993,7 +1597,7 @@
         <v>104</v>
       </c>
       <c r="L15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M15" s="2">
         <v>43624</v>
@@ -5049,7 +1653,7 @@
         <v>104</v>
       </c>
       <c r="L16" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M16" s="2">
         <v>43624</v>
@@ -5099,7 +1703,7 @@
         <v>104</v>
       </c>
       <c r="L17" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M17" s="2">
         <v>43624</v>
@@ -5149,7 +1753,7 @@
         <v>104</v>
       </c>
       <c r="L18" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M18" s="2">
         <v>43624</v>
@@ -5205,7 +1809,7 @@
         <v>104</v>
       </c>
       <c r="L19" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M19" s="2">
         <v>43624</v>
@@ -5261,7 +1865,7 @@
         <v>104</v>
       </c>
       <c r="L20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M20" s="2">
         <v>43624</v>
@@ -5317,7 +1921,7 @@
         <v>104</v>
       </c>
       <c r="L21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M21" s="2">
         <v>43624</v>
@@ -5373,7 +1977,7 @@
         <v>104</v>
       </c>
       <c r="L22" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M22" s="2">
         <v>43624</v>
@@ -5429,7 +2033,7 @@
         <v>104</v>
       </c>
       <c r="L23" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M23" s="2">
         <v>43624</v>
@@ -5485,7 +2089,7 @@
         <v>104</v>
       </c>
       <c r="L24" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M24" s="2">
         <v>43624</v>
@@ -5541,7 +2145,7 @@
         <v>104</v>
       </c>
       <c r="L25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M25" s="2">
         <v>43624</v>
@@ -5597,7 +2201,7 @@
         <v>104</v>
       </c>
       <c r="L26" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M26" s="2">
         <v>43624</v>
@@ -5626,7 +2230,7 @@
         <v>26</v>
       </c>
       <c r="B27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27">
         <v>141</v>
@@ -5653,7 +2257,7 @@
         <v>104</v>
       </c>
       <c r="L27" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M27" s="2">
         <v>43624</v>
@@ -5709,7 +2313,7 @@
         <v>104</v>
       </c>
       <c r="L28" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M28" s="2">
         <v>43624</v>
@@ -5765,7 +2369,7 @@
         <v>104</v>
       </c>
       <c r="L29" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M29" s="2">
         <v>43624</v>
@@ -5821,7 +2425,7 @@
         <v>104</v>
       </c>
       <c r="L30" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M30" s="2">
         <v>43624</v>
@@ -5877,7 +2481,7 @@
         <v>104</v>
       </c>
       <c r="L31" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M31" s="2">
         <v>43624</v>
@@ -5933,7 +2537,7 @@
         <v>104</v>
       </c>
       <c r="L32" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="M32" s="2">
         <v>43624</v>
@@ -5983,7 +2587,7 @@
         <v>104</v>
       </c>
       <c r="L33" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M33" s="2">
         <v>43624</v>
@@ -6033,7 +2637,7 @@
         <v>104</v>
       </c>
       <c r="L34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M34" s="2">
         <v>43624</v>
@@ -6089,7 +2693,7 @@
         <v>104</v>
       </c>
       <c r="L35" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="M35" s="2">
         <v>43624</v>
@@ -6145,7 +2749,7 @@
         <v>104</v>
       </c>
       <c r="L36" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M36" s="2">
         <v>43624</v>
@@ -6201,7 +2805,7 @@
         <v>104</v>
       </c>
       <c r="L37" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M37" s="2">
         <v>43624</v>
@@ -6257,7 +2861,7 @@
         <v>104</v>
       </c>
       <c r="L38" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="M38" s="2">
         <v>43624</v>
@@ -6289,7 +2893,7 @@
         <v>55</v>
       </c>
       <c r="C39" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="F39" t="s">
         <v>74</v>
@@ -6307,7 +2911,7 @@
         <v>104</v>
       </c>
       <c r="L39" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M39" s="2">
         <v>43624</v>
@@ -6339,7 +2943,7 @@
         <v>56</v>
       </c>
       <c r="C40" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F40" t="s">
         <v>75</v>
@@ -6357,7 +2961,7 @@
         <v>104</v>
       </c>
       <c r="L40" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M40" s="2">
         <v>43624</v>
@@ -6410,7 +3014,7 @@
         <v>104</v>
       </c>
       <c r="L41" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M41" s="2">
         <v>43624</v>
@@ -6463,7 +3067,7 @@
         <v>104</v>
       </c>
       <c r="L42" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M42" s="2">
         <v>43624</v>
@@ -6495,7 +3099,7 @@
         <v>59</v>
       </c>
       <c r="C43" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E43" t="s">
         <v>73</v>
@@ -6516,7 +3120,7 @@
         <v>104</v>
       </c>
       <c r="L43" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M43" s="2">
         <v>43624</v>
@@ -6548,7 +3152,7 @@
         <v>60</v>
       </c>
       <c r="C44" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F44" t="s">
         <v>73</v>
@@ -6566,7 +3170,7 @@
         <v>104</v>
       </c>
       <c r="L44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M44" s="2">
         <v>43624</v>
@@ -6598,7 +3202,7 @@
         <v>61</v>
       </c>
       <c r="C45" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F45" t="s">
         <v>73</v>
@@ -6616,7 +3220,7 @@
         <v>104</v>
       </c>
       <c r="L45" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M45" s="2">
         <v>43624</v>
@@ -6648,7 +3252,7 @@
         <v>62</v>
       </c>
       <c r="C46" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s">
         <v>73</v>
@@ -6666,7 +3270,7 @@
         <v>104</v>
       </c>
       <c r="L46" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M46" s="2">
         <v>43624</v>
@@ -6698,7 +3302,7 @@
         <v>63</v>
       </c>
       <c r="C47" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F47" t="s">
         <v>73</v>
@@ -6716,7 +3320,7 @@
         <v>104</v>
       </c>
       <c r="L47" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M47" s="2">
         <v>43624</v>
@@ -6748,7 +3352,7 @@
         <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F48" t="s">
         <v>76</v>
@@ -6766,7 +3370,7 @@
         <v>104</v>
       </c>
       <c r="L48" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M48" s="2">
         <v>43624</v>
@@ -6798,7 +3402,7 @@
         <v>65</v>
       </c>
       <c r="C49" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F49" t="s">
         <v>73</v>
@@ -6816,7 +3420,7 @@
         <v>104</v>
       </c>
       <c r="L49" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M49" s="2">
         <v>43624</v>
@@ -6848,7 +3452,7 @@
         <v>66</v>
       </c>
       <c r="C50" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F50" t="s">
         <v>73</v>
@@ -6866,7 +3470,7 @@
         <v>104</v>
       </c>
       <c r="L50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M50" s="2">
         <v>43624</v>
@@ -6898,7 +3502,7 @@
         <v>20</v>
       </c>
       <c r="C51" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E51">
         <v>0</v>
@@ -6922,7 +3526,7 @@
         <v>104</v>
       </c>
       <c r="L51" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M51" s="2">
         <v>43624</v>
@@ -6954,7 +3558,7 @@
         <v>19</v>
       </c>
       <c r="C52" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E52">
         <v>0</v>
@@ -6978,7 +3582,7 @@
         <v>104</v>
       </c>
       <c r="L52" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M52" s="2">
         <v>43624</v>
@@ -7010,7 +3614,7 @@
         <v>67</v>
       </c>
       <c r="C53" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E53">
         <v>0</v>
@@ -7034,7 +3638,7 @@
         <v>104</v>
       </c>
       <c r="L53" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M53" s="2">
         <v>43624</v>
@@ -7087,7 +3691,7 @@
         <v>104</v>
       </c>
       <c r="L54" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M54" s="2">
         <v>43624</v>
@@ -7140,7 +3744,7 @@
         <v>104</v>
       </c>
       <c r="L55" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M55" s="2">
         <v>43624</v>
@@ -7184,7 +3788,7 @@
         <v>104</v>
       </c>
       <c r="L56" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M56" s="2">
         <v>43624</v>
@@ -7228,7 +3832,7 @@
         <v>104</v>
       </c>
       <c r="L57" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M57" s="2">
         <v>43624</v>
@@ -7257,7 +3861,7 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H58" t="s">
         <v>96</v>
@@ -7272,7 +3876,7 @@
         <v>104</v>
       </c>
       <c r="L58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M58" s="2">
         <v>43624</v>
@@ -7297,6 +3901,9 @@
       </c>
     </row>
     <row r="59" spans="1:19" x14ac:dyDescent="0.4">
+      <c r="A59">
+        <v>58</v>
+      </c>
       <c r="B59" t="s">
         <v>72</v>
       </c>
@@ -7313,7 +3920,7 @@
         <v>104</v>
       </c>
       <c r="L59" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="M59" s="2">
         <v>43624</v>
